--- a/admin/ajax/Top 10 sÃ¡ch mÆ°á»£n nÄƒm THá»NG KÃŠ TOP 10 SÃCH MÆ¯á»¢N NÄ‚M 2017.xlsx
+++ b/admin/ajax/Top 10 sÃ¡ch mÆ°á»£n nÄƒm THá»NG KÃŠ TOP 10 SÃCH MÆ¯á»¢N NÄ‚M 2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>TOP 10 SÁCH MƯỢN NĂM 2017</t>
   </si>
@@ -56,16 +56,16 @@
     <t>Cơ Sở Dữ Liệu</t>
   </si>
   <si>
-    <t>2017-11-05</t>
+    <t>2017-11-07</t>
   </si>
   <si>
     <t>Nguyễn Hoàng Anh</t>
   </si>
   <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>Nhập Môn Công Nghệ Phần Mềm</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Phân Tích Thiết Kế Hệ Thống</t>
   </si>
   <si>
     <t>Nguyễn Hoàng Hải</t>
@@ -80,13 +80,16 @@
     <t>Trần Thị Tuyết Linh</t>
   </si>
   <si>
+    <t>2017-10-31</t>
+  </si>
+  <si>
+    <t>Phan Thế Anh</t>
+  </si>
+  <si>
     <t>S4</t>
   </si>
   <si>
     <t>Tin Học Cơ Sở</t>
-  </si>
-  <si>
-    <t>Phan Thế Anh</t>
   </si>
 </sst>
 </file>
@@ -472,7 +475,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F6" sqref="F6"/>
@@ -647,16 +650,16 @@
         <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>14004038</v>
+        <v>14004045</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
@@ -673,19 +676,19 @@
         <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>14004046</v>
+        <v>14004038</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -702,13 +705,13 @@
         <v>14004006</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>13</v>
@@ -725,44 +728,18 @@
         <v>9</v>
       </c>
       <c r="D12" s="4">
-        <v>14004046</v>
+        <v>14004005</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5">
-        <v>331892182</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>14004006</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
     </row>

--- a/admin/ajax/Top 10 sÃ¡ch mÆ°á»£n nÄƒm THá»NG KÃŠ TOP 10 SÃCH MÆ¯á»¢N NÄ‚M 2017.xlsx
+++ b/admin/ajax/Top 10 sÃ¡ch mÆ°á»£n nÄƒm THá»NG KÃŠ TOP 10 SÃCH MÆ¯á»¢N NÄ‚M 2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>TOP 10 SÁCH MƯỢN NĂM 2017</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>Tin Học Cơ Sở</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Quốc Duy</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>Ngôn Ngữ Lập Trình</t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t>Trương Vệ Linh</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>Nhập Môn Công Nghệ Phần Mềm</t>
   </si>
 </sst>
 </file>
@@ -475,7 +499,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="F6" sqref="F6"/>
@@ -483,12 +507,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="32.991943" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -741,6 +765,84 @@
       </c>
       <c r="H12" s="5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>331256324</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="4">
+        <v>14004001</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>331256324</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="4">
+        <v>14004039</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>331256324</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14004046</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
